--- a/medicine/Handicap/Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée/Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée.xlsx
+++ b/medicine/Handicap/Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée/Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
+          <t>Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le certificat d’aptitude professionnelle aux pratiques de l’éducation inclusive et formation professionnelle spécialisée (CAPPEI) est un diplôme français, passé par un enseignant titulaire du premier ou du second degré, et qui lui permet d'exercer dans l'enseignement spécialisé.
 Ce diplôme n'est pas accessible aux non enseignants et aux enseignants non titulaires. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
+          <t>Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,20 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier certificat destiné à reconnaître l'aptitude à prendre en charge des élèves handicapés fut le certificat d'aptitude aux actions pédagogiques spécialisées d'adaptation et d'intégration scolaires (CAPSAIS) créé en 1987[1].
-Il faisait suite aux différentes modifications du certificat d’aptitude à l’éducation des enfants et adolescents déficients ou inadaptés (CAEI), qui intégrèrent aux précédentes notions de déficiences, les notions de handicap dès 1984[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier certificat destiné à reconnaître l'aptitude à prendre en charge des élèves handicapés fut le certificat d'aptitude aux actions pédagogiques spécialisées d'adaptation et d'intégration scolaires (CAPSAIS) créé en 1987.
+Il faisait suite aux différentes modifications du certificat d’aptitude à l’éducation des enfants et adolescents déficients ou inadaptés (CAEI), qui intégrèrent aux précédentes notions de déficiences, les notions de handicap dès 1984.
 Ce CAEI faisait lui-même suite au tout premier certificat d’aptitude à l’enseignement des enfants arriérés (CAEA), créé conjointement aux classes et aux écoles de perfectionnement.
 En 2004, le CAPSAIS est remplacé par le certificat d’aptitude professionnelle pour les aides spécialisées, les enseignements adaptés et la scolarisation des élèves en situation de handicap (CAPA-SH). 
 Les personnels titulaires d'un CAEI et d'un CAPSAIS sont réputés titulaires d'un CAPA-SH, et celui-ci se substitue au CAEI et au CAPSAIS.
 Le CAPA-SH était destiné à attester la qualification des enseignants du premier degré pouvant être appelés à exercer leurs fonctions dans les écoles, établissements, services accueillant des élèves présentant des besoins éducatifs particuliers liés à une situation de handicap, une maladie ou des difficultés scolaires graves et à contribuer à la mission de prévention des difficultés d'apprentissage.
 Le 2CA-SH (certificat complémentaire pour les enseignements adaptés et la scolarisation des élèves en situation de handicap) était un examen similaire au CAPA-SH mais concernant les professeurs des lycées et collèges publics (agrégés, certifiés, professeurs des lycées professionnels) et privés. Ces certificats étaient définis par le décret et l'arrêté du 5 janvier 2004. 
-Ces deux certificats sont eux-mêmes remplacés depuis février 2017 par certificat d’aptitude professionnelle aux pratiques de l’éducation inclusive et formation professionnelle spécialisée (CAPPEI)[3]. 
+Ces deux certificats sont eux-mêmes remplacés depuis février 2017 par certificat d’aptitude professionnelle aux pratiques de l’éducation inclusive et formation professionnelle spécialisée (CAPPEI). 
 Le CAPPEI s'adresse dorénavant aux enseignants du premier degré et du second degré de l'enseignement public ou privé sous contrat. 
-Il est régi par le décret no 2017-169 du 10 février 2017 et deux arrêtés du même jour[4].
+Il est régi par le décret no 2017-169 du 10 février 2017 et deux arrêtés du même jour.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
+          <t>Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,76 +563,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAEI</t>
+          <t>CAPA-SH</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Options
-Formation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CAPSAIS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Options
-Formation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CAPA-SH</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Options
-Formation
-À la suite de la réforme qui a touché les réseaux d'aides spécialisées aux élèves en difficulté (RASED), les départs en formations spécialisées sont devenus beaucoup moins importants notamment dans les options E et G. De nombreux centres de formations ont été fermés et la formation dans certaines académies s'oriente vers une démarche d'auto-formation avec une ou deux semaines de sensibilisation à l'INSPE, de rencontres avec les partenaires exerçant en établissements médico sociaux et de précisions sur les textes majeurs organisant l'adaptation scolaire et le handicap.
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de la réforme qui a touché les réseaux d'aides spécialisées aux élèves en difficulté (RASED), les départs en formations spécialisées sont devenus beaucoup moins importants notamment dans les options E et G. De nombreux centres de formations ont été fermés et la formation dans certaines académies s'oriente vers une démarche d'auto-formation avec une ou deux semaines de sensibilisation à l'INSPE, de rencontres avec les partenaires exerçant en établissements médico sociaux et de précisions sur les textes majeurs organisant l'adaptation scolaire et le handicap.
 Dans certains départements, les inspecteurs d’académie peuvent organiser des réunions d’information à l’intention des collèges intéressés afin :
 d’éclairer leur choix par rapport aux emplois départementaux existants ou susceptibles de l’être, et des formations correspondantes ;
 de les informer sur les engagements qu’ils prennent en s’inscrivant à la formation préparant au Capa-SH : accepter leur installation sur un poste spécialisé durant le temps de la formation et exercer pendant trois ans dans l’enseignement spécialisé, sur un poste correspondant à l’option choisie (année de formation comprise) ;
@@ -636,8 +592,43 @@
 Les stagiaires peuvent bénéficier d’un accompagnement et d’un suivi diversifiés de la part des formateurs et des équipes de circonscription, selon l'organisation prévue localement.
 Dans les textes de références, la formation de base est orientée autour de trois grandes unités . 
 Dans chacune des sept options, cette formation devrait  permettre aux enseignants de développer les compétences utiles pour concevoir des remédiations relatives aux difficultés des élèves ainsi qu’à la prise en charge du handicap,  à la prise en compte des données de leur environnement scolaire familial et social et au travail dans une équipe pluri catégorielle. Ces compétences spécifiques sont décrites dans le référentiel de compétences (annexes 1 à 4 de la circulaire no 2004-026 du 10 février 2004).
-Déroulement de l'examen
-Les épreuves :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CAPA-SH</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Déroulement de l'examen</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les épreuves :
 L’arrêté du 5 janvier 2004, paru au JO du 7 janvier 2004, définit les conditions d’organisation de l’examen comprenant :
 une épreuve professionnelle comportant la conduite de deux séquences d’activité professionnelle (séquences consécutives d’une durée de 45 minutes chacune) suivies d’un entretien avec un jury d’une heure.
 une épreuve orale de soutenance d’un mémoire professionnel : étude de situation témoignant d’un processus de réflexion sur une question professionnelle en rapport avec l’option choisie, articulant savoirs et expériences. La durée totale de la soutenance est de 30 minutes, la présentation par le candidat de 10 minutes.
@@ -656,13 +647,46 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CAPPEI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux précédents diplômes, le CAPPEI peut être passé par un professeur des écoles, un instituteur ou l'un des professeurs de l'enseignement secondaire. Il est réservé au personnel appelé à rester un moment en activité, donc aux enseignants titulaires de la fonction publique ainsi qu'aux maîtres agréés et aux contractuels recrutés en contrat à durée indéterminée. 
+</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
+          <t>Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,28 +706,101 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contrairement aux précédents diplômes, le CAPPEI peut être passé par un professeur des écoles, un instituteur ou l'un des professeurs de l'enseignement secondaire. Il est réservé au personnel appelé à rester un moment en activité, donc aux enseignants titulaires de la fonction publique ainsi qu'aux maîtres agréés et aux contractuels recrutés en contrat à durée indéterminée. 
-Accès à la formation
-La formation est ouverte aux enseignants qui doivent exercer (voire exercent déjà) dans l'éducation spécialisée, les séquences de formation devant être liées à l'exercice professionnel. La liste de ces enseignants est arrêtée par le recteur pour les enseignants du second degré, par le directeur académique des services de l'Éducation nationale pour ceux du primaire, enfin par les vice-recteurs pour les enseignants exerçant dans les collectivités d'outre-mer[5]. 
-Déroulement de la formation
-Avant l'année scolaire pendant laquelle l'enseignant doit suivre la formation préparant au CAPPEI, il reçoit une formation préparatoire de 24 heures[5].
-Pendant l'année de formation, le candidat suit une formation directement liée aux épreuves du certificat, ainsi que des  « modules de formation d'initiative nationale », lesquels peuvent aussi être ouverts à d'autres personnels éducatifs[6]. 
+          <t>Accès à la formation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation est ouverte aux enseignants qui doivent exercer (voire exercent déjà) dans l'éducation spécialisée, les séquences de formation devant être liées à l'exercice professionnel. La liste de ces enseignants est arrêtée par le recteur pour les enseignants du second degré, par le directeur académique des services de l'Éducation nationale pour ceux du primaire, enfin par les vice-recteurs pour les enseignants exerçant dans les collectivités d'outre-mer. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CAPPEI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Déroulement de la formation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Avant l'année scolaire pendant laquelle l'enseignant doit suivre la formation préparant au CAPPEI, il reçoit une formation préparatoire de 24 heures.
+Pendant l'année de formation, le candidat suit une formation directement liée aux épreuves du certificat, ainsi que des  « modules de formation d'initiative nationale », lesquels peuvent aussi être ouverts à d'autres personnels éducatifs. 
 La formation conduisant spécifiquement au CAPPEI est composée :
 d'un tronc commun de 144 heures comportant six modules obligatoires ;
 de deux modules d'approfondissement d'une durée totale de 104 heures ;
-d'un module de professionnalisation dans l'emploi d'une durée de 52 heures[7].
+d'un module de professionnalisation dans l'emploi d'une durée de 52 heures.
 Les modules de professionnalisation dans l'emploi sont les suivants :
 enseigner en section d'enseignement général et professionnel adapté ou en établissement régional d'enseignement adapté ;
 travailler en réseau d'aides spécialisées aux élèves en difficulté (RASED) - aide à dominante pédagogique ou travailler en RASED - aide à dominante relationnelle ;
 coordonner une unité localisée pour l'inclusion scolaire ;
 enseigner en unité d'enseignement ;
-enseigner en milieu pénitentiaire ou en centre éducatif fermé.
-Examen du CAPPEI
-L'examen comporte trois épreuves[8] : 
+enseigner en milieu pénitentiaire ou en centre éducatif fermé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Certificat_d'aptitude_professionnelle_aux_pratiques_de_l'éducation_inclusive_et_formation_professionnelle_spécialisée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Certificat_d%27aptitude_professionnelle_aux_pratiques_de_l%27%C3%A9ducation_inclusive_et_formation_professionnelle_sp%C3%A9cialis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CAPPEI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Examen du CAPPEI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen comporte trois épreuves : 
 une séquence pédagogique avec des élèves de 45 min, suivie de 45 min d'échange avec le jury autour de la séquence qui vient de se dérouler ;
 un échange d'une heure avec la commission d'aptitude à partir d'un dossier soumis par l'enseignant ;
 la présentation d'une action conduite par le candidat témoignant de son rôle de personne ressource en matière d'éducation inclusive, et permettant de vérifier les connaissances de l'enseignant sur les dispositifs d'éducation inclusive ; cette épreuve dure une demi-heure.
-Le CAPPEI peut être délivré par la voie de la validation des acquis de l'expérience professionnelle[9].  Dans ce cas les candidats doivent justifier de cinq ans d'exercice en tant qu'enseignant dont trois dans le domaine de l'enseignement adapté ou de la scolarisation des élèves en situation de handicap[10].  
+Le CAPPEI peut être délivré par la voie de la validation des acquis de l'expérience professionnelle.  Dans ce cas les candidats doivent justifier de cinq ans d'exercice en tant qu'enseignant dont trois dans le domaine de l'enseignement adapté ou de la scolarisation des élèves en situation de handicap.  
 </t>
         </is>
       </c>
